--- a/base.xlsx
+++ b/base.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultat" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sum_Chromosome" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sum_Mitochondrion" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sum_Chloroplast" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sum_Plasmids" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="75">
   <si>
     <t xml:space="preserve">Trinucleotides</t>
   </si>
@@ -259,6 +262,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -342,14 +346,4696 @@
   </sheetPr>
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3979591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7142857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J66"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7142857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J66"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7142857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J66"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7142857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/base.xlsx
+++ b/base.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultat" sheetId="1" r:id="rId1"/>
+    <sheet name="Sum_Chromosome" sheetId="1" r:id="rId1"/>
+    <sheet name="Sum_Mitochondrion" sheetId="4" r:id="rId2"/>
+    <sheet name="Sum_Chloroplast" sheetId="8" r:id="rId3"/>
+    <sheet name="Sum_Plasmids" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="93">
   <si>
     <t>Trinucleotides</t>
   </si>
@@ -635,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -648,9 +651,10 @@
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +698,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -737,8 +741,9 @@
       <c r="P2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -776,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -814,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -852,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -890,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -928,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -966,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1004,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1042,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1080,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1118,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1156,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1194,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1232,7 +1237,5485 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
